--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Granite\New Equipment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC101B-F0D2-4D96-ADC6-FD6D7181DB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46785452-BB43-45C6-9DA6-374EAD49CD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
   <sheets>
     <sheet name="Path" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backup!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Backup (2)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$65</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +47,7 @@
     <author>my</author>
   </authors>
   <commentList>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{5D21C560-AADE-704C-A077-71D2B57234F2}">
+    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{5D21C560-AADE-704C-A077-71D2B57234F2}">
       <text>
         <r>
           <rPr>
@@ -201,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="170">
   <si>
     <t>ZTE</t>
   </si>
@@ -699,6 +702,18 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LW/1Current</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RADIONODE_NR/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_NR/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE_NR/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1233,26 +1248,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="24" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="107.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="107.19921875" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="24"/>
+    <col min="9" max="9" width="29.19921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.19921875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
@@ -1629,7 +1644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="s">
         <v>8</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +1760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="23" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="23" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="23" t="s">
         <v>8</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>8</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="23" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="23" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="23" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="23" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="23" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="23" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="23" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="23" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="23" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="23" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="23" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="23" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2485,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="23" t="s">
         <v>8</v>
       </c>
@@ -2499,7 +2514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="s">
         <v>8</v>
       </c>
@@ -2528,94 +2543,94 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="D45" s="23">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="D46" s="23">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="D47" s="23">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="23" t="s">
         <v>8</v>
       </c>
@@ -2623,10 +2638,10 @@
         <v>9</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="D48" s="23">
+        <v>900</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>34</v>
@@ -2635,16 +2650,16 @@
         <v>13</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="23" t="s">
         <v>8</v>
       </c>
@@ -2652,28 +2667,28 @@
         <v>9</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="D49" s="23">
+        <v>900</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="s">
         <v>8</v>
       </c>
@@ -2681,28 +2696,28 @@
         <v>9</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="D50" s="23">
+        <v>900</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="23" t="s">
         <v>8</v>
       </c>
@@ -2716,13 +2731,13 @@
         <v>33</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>39</v>
@@ -2731,7 +2746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="23" t="s">
         <v>8</v>
       </c>
@@ -2745,13 +2760,13 @@
         <v>33</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>39</v>
@@ -2760,18 +2775,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="23">
-        <v>850</v>
+        <v>16</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>34</v>
@@ -2780,45 +2795,45 @@
         <v>13</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="23">
-        <v>850</v>
+        <v>16</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="23" t="s">
         <v>8</v>
       </c>
@@ -2826,30 +2841,30 @@
         <v>9</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="23">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>9</v>
@@ -2858,16 +2873,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2100</v>
+        <v>850</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>35</v>
@@ -2876,9 +2891,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>9</v>
@@ -2887,16 +2902,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2100</v>
+        <v>850</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>35</v>
@@ -2905,115 +2920,121 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>900</v>
-      </c>
-      <c r="E58" s="23"/>
+        <v>2100</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="F58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="F59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I59" s="23"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>850</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D61" s="23">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="23" t="s">
         <v>8</v>
       </c>
@@ -3021,24 +3042,105 @@
         <v>0</v>
       </c>
       <c r="C62" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D63" s="23">
+        <v>850</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="23">
+        <v>850</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="23">
         <v>2100</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E65" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="25" t="s">
+      <c r="F65" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H65" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I65" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3057,30 +3159,30 @@
       <selection activeCell="A2" sqref="A2:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="104.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="65.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="65.6640625" customWidth="1"/>
     <col min="15" max="15" width="76.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.19921875" customWidth="1"/>
+    <col min="17" max="17" width="11.46484375" customWidth="1"/>
+    <col min="18" max="18" width="10.46484375" customWidth="1"/>
     <col min="19" max="19" width="65" customWidth="1"/>
-    <col min="20" max="20" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3109,7 +3211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -3168,7 +3270,7 @@
         <v>rfserver_clone/Ericsson/CEW/CNA_FULL/1Current</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -3223,7 +3325,7 @@
         <v>rfserver_clone/Ericsson/CEW/EXERT/1Current/</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3278,7 +3380,7 @@
         <v>rfserver_clone/Ericsson/NTH/CNA_FULL/1Current/</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -3333,7 +3435,7 @@
         <v>rfserver_clone/Ericsson/NTH/EXERT/1Current/</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -3388,7 +3490,7 @@
         <v>rfserver_clone/Ericsson/STH/CNA_FULL/1Current/</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +3545,7 @@
         <v>rfserver_clone/Ericsson/STH/EXERT/1Current/</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -3498,7 +3600,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/ENB/1Current/</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -3553,7 +3655,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/RADIONODE/1Current/</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -3608,7 +3710,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/MIXEDMODE_LW/1Current/</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -3663,7 +3765,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/MIXEDMODE_LG/1Current/</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3820,7 @@
         <v>rfserver_clone/Ericsson/NTH-ENM/full_kget/ENB/1Current/</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -3773,7 +3875,7 @@
         <v>rfserver_clone/Ericsson/NTH-ENM/full_kget/RADIONODE/1Current/</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3828,7 +3930,7 @@
         <v>rfserver_clone/Ericsson/NTH/full_kget/MIXEDMODE_LW/1Current/</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -3883,7 +3985,7 @@
         <v>rfserver_clone/Ericsson/NTH/full_kget/MIXEDMODE_LG/1Current/</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -3938,7 +4040,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/ENB/1Current/</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -3993,7 +4095,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/RADIONODE/1Current/</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -4048,7 +4150,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/MIXEDMODE_LW/1Current/</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -4103,7 +4205,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/MIXEDMODE_LG/1Current/</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -4158,7 +4260,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/RNC/1Current/</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
@@ -4213,7 +4315,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/RBS/1Current/</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
@@ -4268,7 +4370,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/RADIONODE_WCDMA/1Current/</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -4323,7 +4425,7 @@
         <v>rfserver_clone/Ericsson/CEW/full_kget/MIXEDMODE_WG/1Current/</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -4378,7 +4480,7 @@
         <v>rfserver_clone/Ericsson/NTH/full_kget/RNC/1Current/</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -4433,7 +4535,7 @@
         <v>rfserver_clone/Ericsson/NTH/full_kget/RBS/1Current/</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -4488,7 +4590,7 @@
         <v>rfserver_clone/Ericsson/NTH/full_kget/RADIONODE_WCDMA/1Current/</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -4543,7 +4645,7 @@
         <v>rfserver_clone/Ericsson/NTH/full_kget/MIXEDMODE_WG/1Current/</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
@@ -4598,7 +4700,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/RNC/1Current/</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
@@ -4653,7 +4755,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/RBS/1Current/</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
@@ -4708,7 +4810,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/RADIONODE_WCDMA/1Current/</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
@@ -4763,7 +4865,7 @@
         <v>rfserver_clone/Ericsson/STH/full_kget/MIXEDMODE_WG/1Current/</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>8</v>
       </c>
@@ -4821,7 +4923,7 @@
         <v>rfserver_clone/Huawei2100/BMA/BSC_CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>8</v>
       </c>
@@ -4879,7 +4981,7 @@
         <v>rfserver_clone/Huawei2100/EAS/BSC_CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>8</v>
       </c>
@@ -4937,7 +5039,7 @@
         <v>rfserver_clone/Huawei2100/NOE/BSC_CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>8</v>
       </c>
@@ -4995,7 +5097,7 @@
         <v>rfserver_clone/UtranLTE/BMA/BTS3900_LTE/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>8</v>
       </c>
@@ -5053,7 +5155,7 @@
         <v>rfserver_clone/UtranLTE/BMA/BTS3900_LTE2/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>8</v>
       </c>
@@ -5111,7 +5213,7 @@
         <v>rfserver_clone/UtranLTE/BMA/BTS3900_LTE3/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>8</v>
       </c>
@@ -5169,7 +5271,7 @@
         <v>rfserver_clone/UtranLTE/EAS/BTS3900_LTE/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="22" t="s">
         <v>8</v>
       </c>
@@ -5227,7 +5329,7 @@
         <v>rfserver_clone/UtranLTE/NOE/BTS3900_LTE/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>37</v>
       </c>
@@ -5285,7 +5387,7 @@
         <v>rfserver_clone/Huawei/BMA/CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>37</v>
       </c>
@@ -5343,7 +5445,7 @@
         <v>rfserver_clone/Huawei/UPC/CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
         <v>8</v>
       </c>
@@ -5401,7 +5503,7 @@
         <v>rfserver_clone/Huawei2100/BMA/CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>8</v>
       </c>
@@ -5459,7 +5561,7 @@
         <v>rfserver_clone/Huawei2100/EAS/CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
@@ -5517,7 +5619,7 @@
         <v>rfserver_clone/Huawei2100/NOE/CFGMML/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
@@ -5570,7 +5672,7 @@
         <v>rfserver_clone/ZTE2100/radio/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
@@ -5621,7 +5723,7 @@
         <v>rfserver_clone/ZTE2100/bulkcm/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>37</v>
       </c>
@@ -5676,7 +5778,7 @@
         <v>rfserver_clone/ZTE/radio_CW/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>37</v>
       </c>
@@ -5729,7 +5831,7 @@
         <v>rfserver_clone/ZTE/radio_STH/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>8</v>
       </c>
@@ -5784,7 +5886,7 @@
         <v>rfserver_clone/ZTE2100/equip/1Current/unzip-ngoss-drop2-expansion/</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5805,31 +5907,31 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="T51" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="T52" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="T53" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="T54" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="T55" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5851,20 +5953,20 @@
       <selection activeCell="I13" activeCellId="1" sqref="B5 I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5896,7 +5998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
@@ -5920,7 +6022,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="32"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -5942,7 +6044,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -5960,7 +6062,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -5983,7 +6085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6109,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -6031,7 +6133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -6049,7 +6151,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="32"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -6069,7 +6171,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
@@ -6089,7 +6191,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -6113,7 +6215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -6131,7 +6233,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="32"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -6153,7 +6255,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L26" t="s">
         <v>23</v>
       </c>
@@ -6179,20 +6281,20 @@
       <selection activeCell="I31" sqref="A2:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="104.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6221,7 +6323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +6352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -6279,7 +6381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -6308,7 +6410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -6337,7 +6439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -6366,7 +6468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -6395,7 +6497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -6424,7 +6526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -6453,7 +6555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -6482,7 +6584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -6511,7 +6613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -6540,7 +6642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -6569,7 +6671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -6598,7 +6700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -6627,7 +6729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -6656,7 +6758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
@@ -6685,7 +6787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -6714,7 +6816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -6743,7 +6845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -6772,7 +6874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
@@ -6801,7 +6903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
@@ -6830,7 +6932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -6859,7 +6961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -6888,7 +6990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
@@ -6917,7 +7019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -6946,7 +7048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -6975,7 +7077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
@@ -7004,7 +7106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
@@ -7033,7 +7135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>8</v>
       </c>
@@ -7062,7 +7164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>8</v>
       </c>
@@ -7091,7 +7193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
         <v>8</v>
       </c>
@@ -7120,7 +7222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>8</v>
       </c>
@@ -7149,7 +7251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>8</v>
       </c>
@@ -7178,7 +7280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>8</v>
       </c>
@@ -7207,7 +7309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>8</v>
       </c>
@@ -7236,7 +7338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>8</v>
       </c>
@@ -7265,7 +7367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>8</v>
       </c>
@@ -7294,7 +7396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="22" t="s">
         <v>8</v>
       </c>
@@ -7323,7 +7425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15" t="s">
         <v>37</v>
       </c>
@@ -7352,7 +7454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>37</v>
       </c>
@@ -7381,7 +7483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
         <v>8</v>
       </c>
@@ -7410,7 +7512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>8</v>
       </c>
@@ -7439,7 +7541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
@@ -7468,7 +7570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
@@ -7495,7 +7597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
@@ -7520,7 +7622,7 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>37</v>
       </c>
@@ -7549,7 +7651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>37</v>
       </c>
@@ -7576,7 +7678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>8</v>
       </c>
@@ -7605,7 +7707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46785452-BB43-45C6-9DA6-374EAD49CD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4343332F-A6B2-4BC8-804D-5FCC4CE9960D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e13cb156cc9c7c4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4343332F-A6B2-4BC8-804D-5FCC4CE9960D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{4343332F-A6B2-4BC8-804D-5FCC4CE9960D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7F2A762-7852-40EF-A89A-181873530775}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backup!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Backup (2)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
     <author>my</author>
   </authors>
   <commentList>
-    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{5D21C560-AADE-704C-A077-71D2B57234F2}">
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{5D21C560-AADE-704C-A077-71D2B57234F2}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="200">
   <si>
     <t>ZTE</t>
   </si>
@@ -714,6 +714,96 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE_NR/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LWG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LG/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RNC/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RBS/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RADIONODE_WCDMA/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_WG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RADIONODE_GSM/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/ENB/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LW/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LWG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LG/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RNC/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RBS/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE_WCDMA/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_WG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE_GSM/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/ENB/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LW/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LWG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LG/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RNC/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RBS/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_WCDMA/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_WG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LG/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_GSM/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1857,8 +1947,8 @@
       <c r="C21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="23">
-        <v>900</v>
+      <c r="D21" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>55</v>
@@ -1866,8 +1956,8 @@
       <c r="F21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>89</v>
+      <c r="G21" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>51</v>
@@ -1895,8 +1985,8 @@
       <c r="F22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>90</v>
+      <c r="G22" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>51</v>
@@ -1915,17 +2005,17 @@
       <c r="C23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>54</v>
+      <c r="D23" s="23">
+        <v>900</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>51</v>
@@ -1948,13 +2038,13 @@
         <v>54</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>102</v>
+      <c r="G24" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>51</v>
@@ -1977,13 +2067,13 @@
         <v>54</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>108</v>
+      <c r="G25" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>51</v>
@@ -2002,8 +2092,8 @@
       <c r="C26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="23">
-        <v>900</v>
+      <c r="D26" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>46</v>
@@ -2012,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>51</v>
@@ -2029,25 +2119,25 @@
         <v>17</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="23">
+        <v>2100</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>51</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -2058,25 +2148,25 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D28" s="23">
+        <v>2100</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -2087,25 +2177,25 @@
         <v>17</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
+        <v>2100</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H29" s="25" t="s">
         <v>51</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -2128,7 +2218,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>51</v>
@@ -2157,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>51</v>
@@ -2180,13 +2270,13 @@
         <v>2100</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>51</v>
@@ -2209,13 +2299,13 @@
         <v>2100</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>98</v>
+      <c r="G33" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>51</v>
@@ -2238,13 +2328,13 @@
         <v>2100</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>87</v>
+      <c r="G34" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="H34" s="25" t="s">
         <v>51</v>
@@ -2273,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>51</v>
@@ -2301,8 +2391,8 @@
       <c r="F36" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>99</v>
+      <c r="G36" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>51</v>
@@ -2325,13 +2415,13 @@
         <v>2100</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>100</v>
+      <c r="G37" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="H37" s="25" t="s">
         <v>51</v>
@@ -2354,13 +2444,13 @@
         <v>2100</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H38" s="25" t="s">
         <v>51</v>
@@ -2383,13 +2473,13 @@
         <v>2100</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>103</v>
+      <c r="G39" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>51</v>
@@ -2417,8 +2507,8 @@
       <c r="F40" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>104</v>
+      <c r="G40" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>51</v>
@@ -2447,7 +2537,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>51</v>
@@ -2464,19 +2554,19 @@
         <v>17</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D42" s="23">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="27" t="s">
-        <v>106</v>
+      <c r="G42" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="H42" s="25" t="s">
         <v>51</v>
@@ -2493,19 +2583,19 @@
         <v>17</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D43" s="23">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="27" t="s">
-        <v>107</v>
+      <c r="G43" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="H43" s="25" t="s">
         <v>51</v>
@@ -2522,10 +2612,10 @@
         <v>17</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D44" s="23">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>46</v>
@@ -2534,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>51</v>
@@ -2548,28 +2638,28 @@
         <v>8</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="D45" s="23">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -2577,28 +2667,28 @@
         <v>8</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="D46" s="23">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
@@ -2606,28 +2696,28 @@
         <v>8</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="D47" s="23">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
@@ -2638,10 +2728,10 @@
         <v>9</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="23">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>34</v>
@@ -2650,13 +2740,13 @@
         <v>13</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
@@ -2667,25 +2757,25 @@
         <v>9</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="23">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
@@ -2696,25 +2786,25 @@
         <v>9</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="23">
-        <v>900</v>
+        <v>16</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
@@ -2731,13 +2821,13 @@
         <v>33</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H51" s="25" t="s">
         <v>39</v>
@@ -2760,13 +2850,13 @@
         <v>33</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H52" s="25" t="s">
         <v>39</v>
@@ -2777,16 +2867,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="23">
+        <v>850</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>34</v>
@@ -2795,42 +2885,42 @@
         <v>13</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>850</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
@@ -2841,30 +2931,30 @@
         <v>9</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="D55" s="23">
+        <v>2100</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>9</v>
@@ -2873,16 +2963,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>850</v>
+        <v>2100</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H56" s="25" t="s">
         <v>35</v>
@@ -2893,7 +2983,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>9</v>
@@ -2902,16 +2992,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>850</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H57" s="25" t="s">
         <v>35</v>
@@ -2925,28 +3015,26 @@
         <v>8</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D58" s="23">
-        <v>2100</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>34</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="E58" s="23"/>
       <c r="F58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
@@ -2954,84 +3042,80 @@
         <v>8</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="23">
-        <v>2100</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>57</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="23"/>
       <c r="F59" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>38</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I59" s="23"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C60" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2100</v>
+        <v>850</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -3042,77 +3126,83 @@
         <v>0</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="F62" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I62" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D63" s="23">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="23" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="23">
-        <v>850</v>
-      </c>
-      <c r="E64" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="F64" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -3120,28 +3210,1246 @@
         <v>8</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C65" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D68" s="23">
         <v>2100</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E68" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="23">
+        <v>900</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="23">
+        <v>900</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="23">
+        <v>900</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="23">
+        <v>900</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="23">
+        <v>900</v>
+      </c>
+      <c r="E78" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>45</v>
+      <c r="F78" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="23">
+        <v>900</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="23">
+        <v>900</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="23">
+        <v>900</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="23">
+        <v>900</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H92" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="23">
+        <v>900</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H94" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="23">
+        <v>2100</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="23">
+        <v>900</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H104" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="23">
+        <v>900</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H105" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="23">
+        <v>900</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="23">
+        <v>900</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e13cb156cc9c7c4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{4343332F-A6B2-4BC8-804D-5FCC4CE9960D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7F2A762-7852-40EF-A89A-181873530775}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029D425-186E-4415-949C-17D3E46415E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D029D425-186E-4415-949C-17D3E46415E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D2AD9-EB77-4C63-9102-0BBD0D7EB097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="202">
   <si>
     <t>ZTE</t>
   </si>
@@ -804,6 +804,12 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_GSM/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/ZTE_UME/bulkcm/1Current</t>
+  </si>
+  <si>
+    <t>ITBBU.xml</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4450,6 +4456,35 @@
       </c>
       <c r="I107" s="23" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D2AD9-EB77-4C63-9102-0BBD0D7EB097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45F743-CA72-40CE-A58E-2B6BFBEBBE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="204">
   <si>
     <t>ZTE</t>
   </si>
@@ -810,6 +810,12 @@
   </si>
   <si>
     <t>ITBBU.xml</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/ZTE_UME/bulkcm/1Current/</t>
+  </si>
+  <si>
+    <t>1800/2600</t>
   </si>
 </sst>
 </file>
@@ -944,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1035,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4486,6 +4498,33 @@
       <c r="I108" s="23" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="109" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I109" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B45F743-CA72-40CE-A58E-2B6BFBEBBE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F67E68-75EF-4868-AD4F-A2FC242A2B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backup!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Backup (2)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="207">
   <si>
     <t>ZTE</t>
   </si>
@@ -806,16 +806,25 @@
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_GSM/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/ZTE_UME/bulkcm/1Current</t>
-  </si>
-  <si>
-    <t>ITBBU.xml</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/ZTE_UME/bulkcm/1Current/</t>
   </si>
   <si>
-    <t>1800/2600</t>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_8/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE8/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_8/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_8/1Current/</t>
+  </si>
+  <si>
+    <t>.*UMEID_ITBBU_ZTE_.*.xml</t>
+  </si>
+  <si>
+    <t>CFGDATA_.*XML*</t>
   </si>
 </sst>
 </file>
@@ -1033,14 +1042,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4470,8 +4479,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A108" s="23" t="s">
+    <row r="108" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="25" t="s">
@@ -4480,27 +4489,25 @@
       <c r="C108" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="32">
         <v>2600</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="F108" s="32" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="25" t="s">
         <v>200</v>
       </c>
       <c r="H108" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" s="32"/>
+    </row>
+    <row r="109" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="25" t="s">
@@ -4509,24 +4516,241 @@
       <c r="C109" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="32">
+        <v>2600</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="I109" s="32"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" s="23"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I111" s="23"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E109" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="25" t="s">
+      <c r="H112" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" s="23"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" s="23"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I114" s="23"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="H109" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="I109" s="33"/>
+      <c r="H115" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I115" s="23"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" s="23"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="23">
+        <v>2600</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H117" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I117" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I107" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7381,7 +7605,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7392,7 +7616,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -7405,7 +7629,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7416,7 +7640,7 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7427,7 +7651,7 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7660,7 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7445,7 +7669,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7457,7 +7681,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="32"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7468,7 +7692,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7479,7 +7703,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -7492,7 +7716,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -7503,7 +7727,7 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
@@ -7516,7 +7740,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7525,7 +7749,7 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7534,7 +7758,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7545,7 +7769,7 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7554,7 +7778,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7563,7 +7787,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="34" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -7574,7 +7798,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7809,7 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7598,7 +7822,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7607,7 +7831,7 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7616,7 +7840,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -7627,7 +7851,7 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F67E68-75EF-4868-AD4F-A2FC242A2B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2F68B-6C1C-4F9B-9975-EE7043BE46EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -824,7 +824,7 @@
     <t>.*UMEID_ITBBU_ZTE_.*.xml</t>
   </si>
   <si>
-    <t>CFGDATA_.*XML*</t>
+    <t>CFGDATA_.*XML.*</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:XFD117"/>
+      <selection activeCell="H111" sqref="H111:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2F68B-6C1C-4F9B-9975-EE7043BE46EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86390A00-3CDA-4237-8F74-208E0E21ED80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -824,7 +824,7 @@
     <t>.*UMEID_ITBBU_ZTE_.*.xml</t>
   </si>
   <si>
-    <t>CFGDATA_.*XML.*</t>
+    <t>.*CFGDATA_.*XML.*</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111:H117"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86390A00-3CDA-4237-8F74-208E0E21ED80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8394D-CA7D-4F29-BC22-2FDFD38CEEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <author>my</author>
   </authors>
   <commentList>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{5D21C560-AADE-704C-A077-71D2B57234F2}">
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{B4E201FD-4D2F-4887-B373-8DD521C450F3}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="276">
   <si>
     <t>ZTE</t>
   </si>
@@ -825,6 +825,213 @@
   </si>
   <si>
     <t>.*CFGDATA_.*XML.*</t>
+  </si>
+  <si>
+    <t>TECH</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Huawei2100/TECH/BTS3900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Huawei2100/TECH/BTS3900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Huawei2100/TECH/BTS5900_1/1Current/</t>
+  </si>
+  <si>
+    <t>L900/1800/2100/2600</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_8/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_4/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_5/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_8/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_6/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_7/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_8/1Current/</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,9 +1224,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,9 +1231,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1365,3389 +1566,7007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.46484375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="107.19921875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.19921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.19921875" style="24"/>
+    <col min="1" max="1" width="13.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="107.19921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.19921875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.19921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="30">
         <v>900</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="30">
         <v>900</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="30">
         <v>900</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="30">
         <v>900</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="30">
         <v>900</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="30">
         <v>900</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="30">
         <v>900</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="30">
         <v>900</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="30">
         <v>900</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="30">
         <v>900</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="30">
         <v>900</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="30">
         <v>900</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="30">
         <v>900</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="30">
         <v>900</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="30">
         <v>900</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="F16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="23">
+      <c r="A17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="30">
         <v>900</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="F17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="A18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="A19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="A21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="A22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="A23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="30">
         <v>900</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="F23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="A24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="F24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="23" t="s">
+      <c r="A25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="A26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="30">
         <v>2100</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="30">
         <v>2100</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="30">
         <v>2100</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="25" t="s">
+      <c r="F29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="30">
         <v>2100</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="30">
         <v>2100</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="A32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="30">
         <v>2100</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="25" t="s">
+      <c r="A33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="30">
         <v>2100</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="F33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="30">
         <v>2100</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="27" t="s">
+      <c r="F34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="30">
         <v>2100</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="F35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="25" t="s">
+      <c r="A36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="30">
         <v>2100</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="F36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="30">
         <v>2100</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
+      <c r="A38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="30">
         <v>2100</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="30">
         <v>2100</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="23" t="s">
+      <c r="I39" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="25" t="s">
+      <c r="A40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="30">
         <v>2100</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="27" t="s">
+      <c r="F40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="30">
         <v>2100</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="F41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="A42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="30">
         <v>2600</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="25" t="s">
+      <c r="F42" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="25" t="s">
+      <c r="A43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="30">
         <v>2600</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="25" t="s">
+      <c r="F43" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="I43" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="25" t="s">
+      <c r="A44" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="30">
         <v>2600</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="25" t="s">
+      <c r="F44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="25" t="s">
+      <c r="A45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="30">
         <v>900</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="25" t="s">
+      <c r="F45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="25" t="s">
+      <c r="A46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="30">
         <v>900</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="25" t="s">
+      <c r="F46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="23" t="s">
+      <c r="I46" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="25" t="s">
+      <c r="A47" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="30">
         <v>900</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="25" t="s">
+      <c r="F47" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="A48" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="25" t="s">
+      <c r="F48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="A49" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="25" t="s">
+      <c r="F49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="23" t="s">
+      <c r="I49" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="A50" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="25" t="s">
+      <c r="F50" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="23" t="s">
+      <c r="A51" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="25" t="s">
+      <c r="F51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="A52" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="25" t="s">
+      <c r="F52" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="23" t="s">
+      <c r="I52" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="25" t="s">
+      <c r="B53" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="30">
         <v>850</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="25" t="s">
+      <c r="F53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="30">
         <v>850</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="25" t="s">
+      <c r="F54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="23" t="s">
+      <c r="I54" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="30">
         <v>2100</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="25" t="s">
+      <c r="F55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="25" t="s">
+      <c r="A56" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="30">
         <v>2100</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="25" t="s">
+      <c r="F56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="25" t="s">
+      <c r="A57" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="30">
         <v>2100</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="25" t="s">
+      <c r="F57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H57" s="25" t="s">
+      <c r="H57" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="I57" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="30">
         <v>900</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="25" t="s">
+      <c r="E58" s="30"/>
+      <c r="F58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I58" s="23" t="s">
+      <c r="I58" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="23" t="s">
+      <c r="C59" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="25" t="s">
+      <c r="E59" s="30"/>
+      <c r="F59" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="I59" s="23"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="30">
         <v>850</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="25" t="s">
+      <c r="F60" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="H60" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="30">
         <v>850</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="25" t="s">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H61" s="25" t="s">
+      <c r="H61" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I61" s="23" t="s">
+      <c r="I61" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="30">
         <v>2100</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="25" t="s">
+      <c r="F62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I62" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="23">
+      <c r="A63" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="30">
         <v>900</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="25" t="s">
+      <c r="F63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="I63" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="23" t="s">
+      <c r="A64" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F64" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="25" t="s">
+      <c r="F64" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="A65" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="25" t="s">
+      <c r="F65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I65" s="23" t="s">
+      <c r="I65" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="23" t="s">
+      <c r="A66" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="25" t="s">
+      <c r="F66" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H66" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I66" s="23" t="s">
+      <c r="I66" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="A67" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="25" t="s">
+      <c r="F67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I67" s="23" t="s">
+      <c r="I67" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="25" t="s">
+      <c r="A68" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="30">
         <v>2100</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="25" t="s">
+      <c r="F68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="I68" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="25" t="s">
+      <c r="A69" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="30">
         <v>2100</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F69" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="25" t="s">
+      <c r="F69" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H69" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="I69" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="30">
         <v>2100</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="25" t="s">
+      <c r="F70" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="25" t="s">
+      <c r="A71" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="30">
         <v>2100</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="25" t="s">
+      <c r="F71" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="I71" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="30">
         <v>2100</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="25" t="s">
+      <c r="F72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="25" t="s">
+      <c r="A73" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="30">
         <v>2100</v>
       </c>
-      <c r="E73" s="23" t="s">
+      <c r="E73" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="25" t="s">
+      <c r="F73" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="H73" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="25" t="s">
+      <c r="A74" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="30">
         <v>900</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="25" t="s">
+      <c r="F74" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H74" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I74" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="25" t="s">
+      <c r="A75" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="30">
         <v>900</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F75" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="25" t="s">
+      <c r="F75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="H75" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I75" s="23" t="s">
+      <c r="I75" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="25" t="s">
+      <c r="A76" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="30">
         <v>900</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="25" t="s">
+      <c r="F76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I76" s="23" t="s">
+      <c r="I76" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="25" t="s">
+      <c r="A77" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="30">
         <v>900</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F77" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="25" t="s">
+      <c r="F77" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H77" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I77" s="23" t="s">
+      <c r="I77" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="23">
+      <c r="A78" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="30">
         <v>900</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F78" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="25" t="s">
+      <c r="F78" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I78" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="23" t="s">
+      <c r="A79" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="25" t="s">
+      <c r="F79" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I79" s="23" t="s">
+      <c r="I79" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="23" t="s">
+      <c r="A80" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="25" t="s">
+      <c r="F80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="23" t="s">
+      <c r="A81" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F81" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="25" t="s">
+      <c r="F81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H81" s="25" t="s">
+      <c r="H81" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I81" s="23" t="s">
+      <c r="I81" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="23" t="s">
+      <c r="A82" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="25" t="s">
+      <c r="F82" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="H82" s="25" t="s">
+      <c r="H82" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="25" t="s">
+      <c r="A83" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="30">
         <v>2100</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="25" t="s">
+      <c r="F83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I83" s="23" t="s">
+      <c r="I83" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="25" t="s">
+      <c r="A84" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="30">
         <v>2100</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="25" t="s">
+      <c r="F84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="H84" s="25" t="s">
+      <c r="H84" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I84" s="23" t="s">
+      <c r="I84" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="25" t="s">
+      <c r="A85" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="30">
         <v>2100</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F85" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="25" t="s">
+      <c r="F85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="25" t="s">
+      <c r="A86" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="30">
         <v>2100</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="25" t="s">
+      <c r="F86" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I86" s="23" t="s">
+      <c r="I86" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="25" t="s">
+      <c r="A87" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="30">
         <v>2100</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="25" t="s">
+      <c r="F87" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="25" t="s">
+      <c r="A88" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="30">
         <v>2100</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F88" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="25" t="s">
+      <c r="F88" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="30">
         <v>900</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="25" t="s">
+      <c r="F89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="25" t="s">
+      <c r="A90" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="30">
         <v>900</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F90" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="25" t="s">
+      <c r="F90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="25" t="s">
+      <c r="A91" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="30">
         <v>900</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F91" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="25" t="s">
+      <c r="F91" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I91" s="23" t="s">
+      <c r="I91" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="25" t="s">
+      <c r="A92" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="30">
         <v>900</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="25" t="s">
+      <c r="F92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I92" s="23" t="s">
+      <c r="I92" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="23">
+      <c r="A93" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="30">
         <v>900</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F93" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="25" t="s">
+      <c r="F93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I93" s="23" t="s">
+      <c r="I93" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="23" t="s">
+      <c r="A94" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F94" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="25" t="s">
+      <c r="F94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I94" s="23" t="s">
+      <c r="I94" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="23" t="s">
+      <c r="A95" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F95" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="25" t="s">
+      <c r="F95" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="H95" s="25" t="s">
+      <c r="H95" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I95" s="23" t="s">
+      <c r="I95" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="23" t="s">
+      <c r="A96" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F96" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="25" t="s">
+      <c r="F96" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I96" s="23" t="s">
+      <c r="I96" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="23" t="s">
+      <c r="A97" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F97" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="25" t="s">
+      <c r="F97" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="H97" s="25" t="s">
+      <c r="H97" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="25" t="s">
+      <c r="A98" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="30">
         <v>2100</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F98" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="25" t="s">
+      <c r="F98" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="H98" s="25" t="s">
+      <c r="H98" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I98" s="23" t="s">
+      <c r="I98" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="25" t="s">
+      <c r="A99" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="30">
         <v>2100</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F99" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="25" t="s">
+      <c r="F99" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="H99" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I99" s="23" t="s">
+      <c r="I99" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="25" t="s">
+      <c r="A100" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="30">
         <v>2100</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F100" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="25" t="s">
+      <c r="F100" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="H100" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I100" s="23" t="s">
+      <c r="I100" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="25" t="s">
+      <c r="A101" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="30">
         <v>2100</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F101" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="25" t="s">
+      <c r="F101" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H101" s="25" t="s">
+      <c r="H101" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I101" s="23" t="s">
+      <c r="I101" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="25" t="s">
+      <c r="A102" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="30">
         <v>2100</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F102" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="25" t="s">
+      <c r="F102" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="H102" s="25" t="s">
+      <c r="H102" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I102" s="23" t="s">
+      <c r="I102" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="25" t="s">
+      <c r="A103" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="30">
         <v>2100</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F103" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="25" t="s">
+      <c r="F103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H103" s="25" t="s">
+      <c r="H103" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="25" t="s">
+      <c r="A104" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="30">
         <v>900</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F104" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="25" t="s">
+      <c r="F104" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="H104" s="25" t="s">
+      <c r="H104" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I104" s="23" t="s">
+      <c r="I104" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="25" t="s">
+      <c r="A105" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="30">
         <v>900</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F105" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="25" t="s">
+      <c r="F105" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H105" s="25" t="s">
+      <c r="H105" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I105" s="23" t="s">
+      <c r="I105" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="25" t="s">
+      <c r="A106" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="30">
         <v>900</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F106" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="25" t="s">
+      <c r="F106" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="H106" s="25" t="s">
+      <c r="H106" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I106" s="23" t="s">
+      <c r="I106" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="25" t="s">
+      <c r="A107" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="30">
         <v>900</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F107" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="25" t="s">
+      <c r="F107" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H107" s="25" t="s">
+      <c r="H107" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I107" s="23" t="s">
+      <c r="I107" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="25" t="s">
+    <row r="108" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108" s="30">
         <v>2600</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F108" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="25" t="s">
+      <c r="F108" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="H108" s="25" t="s">
+      <c r="H108" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="I108" s="32"/>
-    </row>
-    <row r="109" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="25" t="s">
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="32">
+      <c r="C109" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="30">
         <v>2600</v>
       </c>
-      <c r="E109" s="32" t="s">
+      <c r="E109" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F109" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="25" t="s">
+      <c r="F109" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="H109" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="I109" s="32"/>
+      <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="23">
+      <c r="A110" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="30">
         <v>2600</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F110" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="25" t="s">
+      <c r="F110" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="H110" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I110" s="23"/>
+      <c r="H110" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A111" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="23">
+      <c r="A111" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="30">
         <v>2600</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F111" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="25" t="s">
+      <c r="F111" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="H111" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I111" s="23"/>
+      <c r="H111" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="23">
+      <c r="A112" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="30">
         <v>2600</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F112" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="25" t="s">
+      <c r="F112" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H112" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I112" s="23"/>
+      <c r="H112" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="23">
+      <c r="A113" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="30">
         <v>2600</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F113" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="25" t="s">
+      <c r="F113" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="H113" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I113" s="23"/>
+      <c r="H113" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A114" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="25" t="s">
+      <c r="A114" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H114" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H115" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H116" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F123" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E124" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F125" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F126" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F128" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E130" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H133" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E134" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H134" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H135" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F136" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E137" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F138" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H138" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F139" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H139" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F140" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H140" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F142" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A143" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H143" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A144" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="H144" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A145" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E145" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F145" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="H145" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A146" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E146" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H146" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A147" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E147" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H147" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A148" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E148" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H148" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A149" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E149" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E150" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H150" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" s="30"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E152" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H152" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I152" s="30"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A153" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I153" s="30"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A154" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E154" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H154" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I154" s="30"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E155" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F155" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I155" s="30"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E156" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H156" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I156" s="30"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E157" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I157" s="30"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A158" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E158" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H158" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E159" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H159" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A160" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E160" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H160" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I160" s="30"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A161" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E161" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H161" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I161" s="30"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E162" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F162" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H162" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I162" s="30"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A163" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E163" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H163" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I163" s="30"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A164" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H164" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" s="30"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A165" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E165" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H165" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I165" s="30"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A166" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E166" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="H166" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I166" s="30"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A167" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E167" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="H167" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I167" s="30"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A168" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="H168" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I168" s="30"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A169" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E169" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H169" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I169" s="30"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A170" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E170" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H170" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I170" s="30"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A171" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E171" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H171" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I171" s="30"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A172" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E172" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="H172" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I172" s="30"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A173" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H173" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" s="30"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A174" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F174" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H174" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I174" s="30"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A175" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E175" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F175" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I175" s="30"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A176" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E176" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F176" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H176" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I176" s="30"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A177" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E177" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F177" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H177" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I177" s="30"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A178" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E178" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F178" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H178" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I178" s="30"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A179" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F179" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I179" s="30"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A180" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F180" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H180" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I180" s="30"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A181" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D181" s="30">
         <v>2600</v>
       </c>
-      <c r="E114" s="23" t="s">
+      <c r="E181" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F114" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="25" t="s">
+      <c r="F181" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="H114" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I114" s="23"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="25" t="s">
+      <c r="H181" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I181" s="30"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A182" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D182" s="30">
         <v>2600</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E182" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F115" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="25" t="s">
+      <c r="F182" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="H115" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I115" s="23"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="25" t="s">
+      <c r="H182" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I182" s="30"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A183" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D183" s="30">
         <v>2600</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E183" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F116" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="25" t="s">
+      <c r="F183" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H116" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I116" s="23"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A117" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="25" t="s">
+      <c r="H183" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I183" s="30"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A184" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D184" s="30">
         <v>2600</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="E184" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="25" t="s">
+      <c r="F184" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="H117" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I117" s="23"/>
+      <c r="H184" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I184" s="30"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A185" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D185" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E185" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F185" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H185" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I185" s="30"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A186" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D186" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E186" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F186" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H186" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I186" s="30"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A187" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D187" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E187" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F187" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H187" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I187" s="30"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A188" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D188" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E188" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H188" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I188" s="30"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A189" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D189" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E189" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F189" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H189" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I189" s="30"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A190" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D190" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E190" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F190" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H190" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I190" s="30"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A191" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D191" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E191" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F191" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H191" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I191" s="30"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A192" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D192" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E192" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F192" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H192" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I192" s="30"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A193" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D193" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E193" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F193" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H193" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I193" s="30"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A194" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D194" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E194" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F194" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H194" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I194" s="30"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A195" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D195" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E195" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H195" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I195" s="30"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A196" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D196" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E196" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F196" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H196" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I196" s="30"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A197" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D197" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E197" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H197" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I197" s="30"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A198" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D198" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E198" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F198" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H198" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I198" s="30"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A199" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D199" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E199" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F199" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H199" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A200" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D200" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E200" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F200" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H200" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I200" s="30"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A201" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D201" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E201" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F201" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H201" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I201" s="30"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A202" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D202" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E202" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F202" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H202" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I202" s="30"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A203" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D203" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E203" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F203" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H203" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A204" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D204" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E204" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F204" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H204" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A205" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D205" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E205" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F205" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="H205" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I205" s="30"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A206" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D206" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E206" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F206" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H206" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A207" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D207" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E207" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F207" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H207" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A208" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D208" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E208" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H208" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A209" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D209" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E209" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F209" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H209" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A210" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D210" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E210" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F210" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G210" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H210" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I210" s="30"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A211" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D211" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E211" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F211" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H211" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I211" s="30"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A212" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D212" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E212" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F212" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H212" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A213" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D213" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E213" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F213" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H213" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I213" s="30"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A214" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D214" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E214" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F214" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H214" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A215" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D215" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E215" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F215" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="H215" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A216" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D216" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E216" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F216" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="H216" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A217" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D217" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E217" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F217" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H217" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I217" s="30"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A218" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D218" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F218" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H218" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I218" s="30"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A219" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D219" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E219" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F219" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H219" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A220" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D220" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H220" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A221" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D221" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H221" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A222" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D222" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E222" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F222" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H222" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I222" s="30"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A223" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D223" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E223" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H223" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A224" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D224" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E224" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F224" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H224" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A225" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D225" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E225" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F225" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="H225" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I225" s="30"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A226" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D226" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E226" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F226" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H226" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A227" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D227" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E227" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F227" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H227" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A228" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D228" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F228" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="H228" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A229" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D229" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F229" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H229" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I229" s="30"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A230" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D230" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H230" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A231" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D231" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E231" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F231" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H231" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I231" s="30"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A232" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D232" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E232" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F232" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H232" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I232" s="30"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A233" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D233" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E233" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F233" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H233" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I233" s="30"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A234" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D234" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E234" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F234" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H234" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I234" s="30"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A235" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D235" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H235" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I235" s="30"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A236" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D236" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E236" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H236" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I236" s="30"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A237" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D237" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E237" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F237" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="H237" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I237" s="30"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A238" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D238" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E238" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F238" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="H238" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I238" s="30"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A239" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D239" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E239" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="H239" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A240" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D240" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E240" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H240" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I240" s="30"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A241" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D241" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E241" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H241" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I241" s="30"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A242" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D242" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E242" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H242" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I242" s="30"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A243" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D243" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E243" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F243" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="H243" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I243" s="30"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A244" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D244" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F244" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H244" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A245" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D245" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="H245" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A246" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D246" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E246" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F246" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="H246" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I246" s="30"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A247" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D247" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E247" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F247" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H247" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A248" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D248" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E248" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F248" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H248" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I248" s="30"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A249" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D249" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E249" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F249" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H249" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A250" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D250" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E250" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F250" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="H250" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A251" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D251" s="30">
+        <v>2600</v>
+      </c>
+      <c r="E251" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F251" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="H251" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I251" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I107" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
@@ -7605,7 +11424,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7616,7 +11435,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -7629,7 +11448,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="34"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7640,7 +11459,7 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7651,7 +11470,7 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7660,7 +11479,7 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7669,7 +11488,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7681,7 +11500,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
@@ -7692,7 +11511,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7703,7 +11522,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -7716,7 +11535,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -7727,7 +11546,7 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
@@ -7740,7 +11559,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="34"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7749,7 +11568,7 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
@@ -7758,7 +11577,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7769,7 +11588,7 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -7778,7 +11597,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -7787,7 +11606,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -7798,7 +11617,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7809,7 +11628,7 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
@@ -7822,7 +11641,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7831,7 +11650,7 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
@@ -7840,7 +11659,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -7851,7 +11670,7 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8394D-CA7D-4F29-BC22-2FDFD38CEEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F78B1C-A99B-450A-9D26-194A8C929688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backup!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Backup (2)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
     <author>my</author>
   </authors>
   <commentList>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{B4E201FD-4D2F-4887-B373-8DD521C450F3}">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{B4E201FD-4D2F-4887-B373-8DD521C450F3}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="208">
   <si>
     <t>ZTE</t>
   </si>
@@ -692,15 +692,6 @@
     <t>xx_OMMR_xx12xx_umts_radio_xx.xml</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW/full_kget/RADIONODE_GSM/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH/full_kget/RADIONODE_GSM/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/STH/full_kget/RADIONODE_GSM/1Current/</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LW/1Current</t>
   </si>
   <si>
@@ -827,208 +818,13 @@
     <t>.*CFGDATA_.*XML.*</t>
   </si>
   <si>
-    <t>TECH</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Huawei2100/TECH/BTS3900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Huawei2100/TECH/BTS3900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Huawei2100/TECH/BTS5900_1/1Current/</t>
-  </si>
-  <si>
     <t>L900/1800/2100/2600</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_7/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_7/1Current/</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_8/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_7/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE7/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS5900_7/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_1/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_2/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_3/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_4/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_5/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/NodeB3900_6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE7/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_7/1Current/</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS5900_8/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_6/1Current/</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_7/1Current/</t>
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_8/1Current/</t>
@@ -1166,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1239,7 +1035,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1566,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1615,7 +1410,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -1624,13 +1419,13 @@
       <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>900</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="24" t="s">
@@ -1639,12 +1434,12 @@
       <c r="H2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1653,13 +1448,13 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>900</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="24" t="s">
@@ -1668,12 +1463,12 @@
       <c r="H3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -1682,27 +1477,27 @@
       <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>900</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -1711,27 +1506,27 @@
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>900</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -1740,27 +1535,27 @@
       <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>900</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -1769,781 +1564,773 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>900</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="F8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="30">
-        <v>900</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30">
-        <v>900</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="30">
-        <v>900</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>900</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>900</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>900</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="30">
-        <v>900</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30">
-        <v>900</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30">
-        <v>900</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="30">
-        <v>900</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="D17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="D18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
-        <v>8</v>
+      <c r="A19" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>850</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="30" t="s">
-        <v>8</v>
+      <c r="A20" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>850</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="30">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="29">
         <v>900</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>53</v>
+        <v>159</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="30" t="s">
-        <v>8</v>
+      <c r="A26" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29">
+        <v>850</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>53</v>
+        <v>161</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
-        <v>8</v>
+      <c r="A27" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="29">
+        <v>850</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>52</v>
+        <v>161</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="29">
         <v>2100</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>52</v>
+        <v>161</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="29">
+        <v>900</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>52</v>
+      <c r="I29" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>52</v>
+      <c r="I30" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="30" t="s">
-        <v>52</v>
+      <c r="I31" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E32" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>52</v>
+      <c r="I32" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E33" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>99</v>
+      <c r="F33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="30" t="s">
-        <v>52</v>
+      <c r="I33" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -2552,27 +2339,27 @@
       <c r="C34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="29">
         <v>2100</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>100</v>
+      <c r="F34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>52</v>
+      <c r="I34" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -2581,27 +2368,27 @@
       <c r="C35" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="29">
         <v>2100</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>52</v>
+      <c r="I35" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="24" t="s">
@@ -2610,27 +2397,27 @@
       <c r="C36" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="29">
         <v>2100</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>52</v>
+      <c r="I36" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -2639,27 +2426,27 @@
       <c r="C37" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="29">
         <v>2100</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>52</v>
+      <c r="I37" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -2668,27 +2455,27 @@
       <c r="C38" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="29">
         <v>2100</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="30" t="s">
+      <c r="E38" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="30" t="s">
-        <v>52</v>
+      <c r="I38" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -2697,686 +2484,694 @@
       <c r="C39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <v>2100</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="29">
+        <v>900</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="29">
+        <v>900</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="29">
+        <v>900</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="29">
+        <v>900</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="29">
+        <v>900</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E40" s="30" t="s">
+      <c r="F44" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E41" s="30" t="s">
+      <c r="F45" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E44" s="30" t="s">
+      <c r="F46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="30">
-        <v>900</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="30">
-        <v>900</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="30">
-        <v>900</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="30" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="30" t="s">
+      <c r="D48" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" s="30" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="30" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="30" t="s">
-        <v>37</v>
+      <c r="A53" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="30">
-        <v>850</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="30" t="s">
+      <c r="D53" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="30" t="s">
-        <v>37</v>
+      <c r="A54" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="30">
-        <v>850</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="30" t="s">
+      <c r="D54" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="29">
+        <v>900</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="29">
+        <v>900</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="29">
+        <v>900</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="29">
         <v>900</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30" t="s">
+      <c r="E58" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30" t="s">
+      <c r="D59" s="29">
+        <v>900</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I59" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="30" t="s">
-        <v>37</v>
+      <c r="A60" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="30">
-        <v>850</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I60" s="30" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="30" t="s">
-        <v>37</v>
+      <c r="A61" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="30">
-        <v>850</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I61" s="30" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" s="30" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B63" s="24" t="s">
@@ -3385,143 +3180,143 @@
       <c r="C63" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="30">
-        <v>900</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="30" t="s">
+      <c r="D63" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="30" t="s">
+      <c r="I63" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="H64" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="H65" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="H66" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F67" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I67" s="30" t="s">
+      <c r="I67" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -3530,27 +3325,27 @@
       <c r="C68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="29">
         <v>2100</v>
       </c>
-      <c r="E68" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="30" t="s">
+      <c r="E68" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="H68" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I68" s="30" t="s">
+      <c r="I68" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="24" t="s">
@@ -3559,5017 +3354,575 @@
       <c r="C69" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="29">
         <v>2100</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="30" t="s">
+      <c r="E69" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="29">
+        <v>900</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I70" s="30" t="s">
-        <v>53</v>
+      <c r="I70" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="29">
+        <v>900</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I71" s="30" t="s">
-        <v>53</v>
+      <c r="I71" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="29">
+        <v>900</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="H72" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I72" s="30" t="s">
-        <v>53</v>
+      <c r="I72" s="29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="29">
+        <v>900</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H73" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I73" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="30" t="s">
+      <c r="I73" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="30">
-        <v>900</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F74" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I74" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" s="29"/>
+    </row>
+    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="30">
-        <v>900</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F75" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I75" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I75" s="29"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="30">
-        <v>900</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I76" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I76" s="29"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="30">
-        <v>900</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>52</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="30">
-        <v>900</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="30" t="s">
+      <c r="D78" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I78" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="30" t="s">
+      <c r="D79" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="30" t="s">
+      <c r="D80" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I80" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F81" s="30" t="s">
+      <c r="D81" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I81" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" s="30" t="s">
+      <c r="D82" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I82" s="29"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I83" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I83" s="29"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I84" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F85" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I85" s="29"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F86" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I86" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E87" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F87" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F88" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I88" s="30" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="30">
-        <v>900</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F89" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A90" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="30">
-        <v>900</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F90" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H90" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I90" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A91" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="30">
-        <v>900</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H91" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I91" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="30">
-        <v>900</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I92" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A93" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="30">
-        <v>900</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I93" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I94" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I95" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A97" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E97" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H97" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I97" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H98" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I98" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E99" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H99" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I99" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="H100" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I100" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I101" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A102" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E102" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H102" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I102" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A103" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="30">
-        <v>2100</v>
-      </c>
-      <c r="E103" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I103" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="30">
-        <v>900</v>
-      </c>
-      <c r="E104" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H104" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I104" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="30">
-        <v>900</v>
-      </c>
-      <c r="E105" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I105" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="30">
-        <v>900</v>
-      </c>
-      <c r="E106" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I106" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="30">
-        <v>900</v>
-      </c>
-      <c r="E107" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H107" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I107" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D108" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E108" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H108" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I108" s="30"/>
-    </row>
-    <row r="109" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H109" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I109" s="30"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E110" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I110" s="30"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A111" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E111" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H111" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I111" s="30"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E112" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H112" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I112" s="30"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H113" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I113" s="30"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A114" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I114" s="30"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E115" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H115" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I115" s="30"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E116" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="H116" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I116" s="30"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A117" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E117" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I117" s="30"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A118" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E118" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H118" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I118" s="30"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A119" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E119" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I119" s="30"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A120" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E120" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="H120" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I120" s="30"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A121" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E121" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I121" s="30"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A122" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E122" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H122" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I122" s="30"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A123" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E123" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F123" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I123" s="30"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A124" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E124" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F124" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="H124" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I124" s="30"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A125" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E125" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F125" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I125" s="30"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A126" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F126" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="H126" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A127" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E127" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F127" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I127" s="30"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A128" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E128" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F128" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A129" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E129" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F129" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I129" s="30"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A130" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E130" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F130" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I130" s="30"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A131" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E131" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F131" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I131" s="30"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A132" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H132" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I132" s="30"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A133" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E133" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="H133" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I133" s="30"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A134" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F134" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="H134" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I134" s="30"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A135" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F135" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I135" s="30"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F136" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H136" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I136" s="30"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F137" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="H137" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I137" s="30"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F138" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H138" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I138" s="30"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A139" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E139" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F139" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H139" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I139" s="30"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E140" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F140" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="H140" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I140" s="30"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E141" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F141" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="H141" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I141" s="30"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F142" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H142" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I142" s="30"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A143" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E143" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F143" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I143" s="30"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A144" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F144" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="H144" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I144" s="30"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A145" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E145" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F145" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="H145" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I145" s="30"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A146" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F146" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H146" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I146" s="30"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A147" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F147" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H147" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I147" s="30"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A148" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E148" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F148" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H148" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I148" s="30"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A149" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F149" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H149" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I149" s="30"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A150" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E150" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="H150" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I150" s="30"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A151" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F151" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H151" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I151" s="30"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A152" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E152" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H152" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I152" s="30"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A153" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E153" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F153" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="H153" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I153" s="30"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A154" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E154" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F154" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H154" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I154" s="30"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A155" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E155" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F155" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="H155" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I155" s="30"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E156" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F156" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="H156" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I156" s="30"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E157" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="H157" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I157" s="30"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E158" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F158" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H158" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I158" s="30"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A159" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E159" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F159" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="H159" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I159" s="30"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A160" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E160" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F160" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="H160" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I160" s="30"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A161" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E161" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F161" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H161" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I161" s="30"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A162" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E162" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F162" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="H162" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I162" s="30"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A163" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E163" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="H163" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I163" s="30"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A164" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E164" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F164" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="H164" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I164" s="30"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A165" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C165" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E165" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F165" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="H165" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I165" s="30"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A166" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E166" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F166" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="H166" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I166" s="30"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A167" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C167" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E167" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="H167" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I167" s="30"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A168" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E168" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F168" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="H168" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I168" s="30"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A169" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E169" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="H169" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I169" s="30"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A170" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E170" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F170" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="H170" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I170" s="30"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A171" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E171" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F171" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H171" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I171" s="30"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A172" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E172" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F172" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H172" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I172" s="30"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A173" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C173" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E173" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F173" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H173" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I173" s="30"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A174" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E174" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F174" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H174" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I174" s="30"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A175" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E175" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F175" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G175" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H175" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I175" s="30"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A176" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E176" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F176" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H176" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I176" s="30"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A177" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E177" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F177" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H177" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I177" s="30"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A178" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E178" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F178" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H178" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I178" s="30"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A179" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E179" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F179" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="H179" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I179" s="30"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A180" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E180" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F180" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H180" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I180" s="30"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A181" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D181" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E181" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F181" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H181" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I181" s="30"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A182" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D182" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E182" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F182" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H182" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I182" s="30"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A183" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D183" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E183" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F183" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G183" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="H183" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I183" s="30"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A184" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D184" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E184" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F184" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H184" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I184" s="30"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A185" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D185" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E185" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F185" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H185" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I185" s="30"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A186" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D186" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E186" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F186" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H186" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I186" s="30"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A187" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C187" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D187" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E187" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F187" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="H187" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I187" s="30"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A188" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D188" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E188" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F188" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H188" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I188" s="30"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A189" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D189" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E189" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F189" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H189" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I189" s="30"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A190" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D190" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E190" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F190" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H190" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I190" s="30"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A191" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B191" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C191" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D191" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E191" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F191" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="H191" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I191" s="30"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A192" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C192" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D192" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E192" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F192" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G192" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="H192" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I192" s="30"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A193" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C193" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D193" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E193" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F193" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H193" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I193" s="30"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A194" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B194" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D194" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E194" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F194" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H194" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I194" s="30"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A195" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B195" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C195" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D195" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E195" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F195" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="H195" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I195" s="30"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A196" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B196" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D196" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E196" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F196" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G196" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="H196" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I196" s="30"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A197" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D197" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E197" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F197" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="H197" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I197" s="30"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A198" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B198" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C198" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D198" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E198" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F198" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="H198" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I198" s="30"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A199" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C199" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D199" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E199" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F199" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H199" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I199" s="30"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A200" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D200" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E200" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F200" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="H200" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I200" s="30"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A201" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C201" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D201" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E201" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F201" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G201" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="H201" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I201" s="30"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A202" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D202" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E202" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F202" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G202" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="H202" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I202" s="30"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A203" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B203" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C203" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D203" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E203" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F203" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G203" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H203" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I203" s="30"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A204" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B204" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D204" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E204" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F204" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G204" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="H204" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I204" s="30"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A205" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B205" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D205" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E205" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F205" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G205" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="H205" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I205" s="30"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A206" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C206" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D206" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E206" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F206" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G206" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H206" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I206" s="30"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A207" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B207" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C207" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D207" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E207" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F207" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G207" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H207" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I207" s="30"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A208" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B208" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C208" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D208" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E208" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F208" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G208" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="H208" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I208" s="30"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A209" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D209" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E209" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F209" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G209" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="H209" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I209" s="30"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A210" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D210" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E210" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F210" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H210" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I210" s="30"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A211" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B211" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D211" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E211" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F211" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G211" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="H211" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I211" s="30"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A212" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D212" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E212" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F212" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G212" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="H212" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I212" s="30"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A213" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B213" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D213" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E213" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F213" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G213" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H213" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I213" s="30"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A214" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B214" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D214" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E214" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F214" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="H214" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I214" s="30"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A215" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B215" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D215" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E215" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F215" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G215" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="H215" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I215" s="30"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A216" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B216" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C216" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D216" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E216" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F216" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G216" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="H216" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I216" s="30"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A217" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B217" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D217" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E217" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F217" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G217" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H217" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I217" s="30"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A218" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B218" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C218" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D218" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E218" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F218" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H218" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I218" s="30"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A219" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B219" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C219" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D219" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E219" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F219" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H219" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I219" s="30"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A220" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B220" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C220" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D220" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E220" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F220" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G220" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H220" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I220" s="30"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A221" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D221" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E221" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F221" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="H221" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I221" s="30"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A222" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B222" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D222" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E222" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F222" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H222" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I222" s="30"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A223" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B223" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D223" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E223" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F223" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G223" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H223" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I223" s="30"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A224" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B224" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D224" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E224" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F224" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="H224" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I224" s="30"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A225" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B225" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C225" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D225" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E225" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F225" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="H225" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I225" s="30"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A226" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B226" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D226" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E226" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F226" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G226" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="H226" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I226" s="30"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A227" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B227" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C227" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D227" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E227" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F227" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G227" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="H227" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I227" s="30"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A228" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B228" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C228" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D228" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E228" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F228" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G228" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="H228" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I228" s="30"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A229" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B229" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D229" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E229" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F229" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G229" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="H229" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I229" s="30"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A230" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B230" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D230" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E230" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F230" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G230" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="H230" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I230" s="30"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A231" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B231" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C231" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D231" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E231" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F231" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G231" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="H231" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I231" s="30"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A232" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B232" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C232" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D232" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E232" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F232" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G232" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H232" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I232" s="30"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A233" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C233" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D233" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E233" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F233" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G233" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="H233" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I233" s="30"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A234" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B234" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C234" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D234" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E234" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F234" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G234" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="H234" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I234" s="30"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A235" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B235" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D235" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E235" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F235" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G235" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="H235" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I235" s="30"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A236" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B236" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C236" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D236" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E236" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F236" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="H236" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I236" s="30"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A237" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B237" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C237" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D237" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E237" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F237" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G237" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="H237" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I237" s="30"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A238" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B238" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C238" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D238" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E238" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F238" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G238" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="H238" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I238" s="30"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A239" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B239" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C239" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D239" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E239" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F239" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G239" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="H239" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I239" s="30"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A240" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B240" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C240" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D240" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E240" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F240" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G240" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="H240" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I240" s="30"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A241" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B241" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D241" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E241" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F241" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G241" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="H241" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I241" s="30"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A242" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B242" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C242" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D242" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E242" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F242" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G242" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H242" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I242" s="30"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A243" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B243" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C243" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D243" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E243" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F243" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G243" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H243" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I243" s="30"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A244" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B244" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D244" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E244" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F244" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G244" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H244" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I244" s="30"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A245" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B245" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C245" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D245" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E245" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F245" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G245" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="H245" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I245" s="30"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A246" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B246" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C246" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D246" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E246" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F246" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G246" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="H246" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I246" s="30"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A247" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B247" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C247" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D247" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E247" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F247" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G247" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H247" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I247" s="30"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A248" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B248" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C248" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D248" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E248" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F248" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H248" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I248" s="30"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A249" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B249" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C249" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D249" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E249" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F249" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="H249" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I249" s="30"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A250" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B250" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C250" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D250" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E250" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F250" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G250" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="H250" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I250" s="30"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A251" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C251" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D251" s="30">
-        <v>2600</v>
-      </c>
-      <c r="E251" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F251" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H251" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I251" s="30"/>
+      <c r="I89" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I107" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
+  <autoFilter ref="A1:I73" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -11424,7 +6777,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -11435,7 +6788,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -11448,7 +6801,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -11459,7 +6812,7 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -11470,7 +6823,7 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="32"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11479,7 +6832,7 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
@@ -11488,7 +6841,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="32"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11500,7 +6853,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="32"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
@@ -11511,7 +6864,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11522,7 +6875,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -11535,7 +6888,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -11546,7 +6899,7 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
@@ -11559,7 +6912,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -11568,7 +6921,7 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
@@ -11577,7 +6930,7 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
@@ -11588,7 +6941,7 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
@@ -11597,7 +6950,7 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11606,7 +6959,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -11617,7 +6970,7 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -11628,7 +6981,7 @@
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
@@ -11641,7 +6994,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -11650,7 +7003,7 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
@@ -11659,7 +7012,7 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -11670,7 +7023,7 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="1" t="s">
         <v>22</v>
       </c>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F78B1C-A99B-450A-9D26-194A8C929688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F8768-B632-474F-A354-58C1369EDF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backup!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Backup (2)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="217">
   <si>
     <t>ZTE</t>
   </si>
@@ -828,6 +828,33 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/NodeB3900_8/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/BMA/BTS3900_LTE3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_LTE1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_LTE2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/EAS/BTS3900_LTE3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE1/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE2/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE3/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1777,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>39</v>
@@ -1806,7 +1833,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>39</v>
@@ -1835,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>39</v>
@@ -1864,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>39</v>
@@ -1887,13 +1914,13 @@
         <v>33</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>39</v>
@@ -1904,60 +1931,60 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29">
-        <v>850</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="29">
-        <v>850</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1968,25 +1995,25 @@
         <v>9</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -1997,30 +2024,30 @@
         <v>9</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="29" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>9</v>
@@ -2029,16 +2056,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="29">
-        <v>2100</v>
+        <v>850</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>35</v>
@@ -2049,29 +2076,31 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="29" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D24" s="29">
-        <v>900</v>
-      </c>
-      <c r="E24" s="29"/>
+        <v>850</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -2079,80 +2108,86 @@
         <v>8</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="29">
+        <v>2100</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="29" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="29">
-        <v>850</v>
+        <v>2100</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="29" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="29">
-        <v>850</v>
-      </c>
-      <c r="E27" s="29"/>
+        <v>2100</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -2163,14 +2198,12 @@
         <v>0</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D28" s="29">
-        <v>2100</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>46</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
         <v>13</v>
       </c>
@@ -2178,10 +2211,10 @@
         <v>80</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -2189,86 +2222,80 @@
         <v>8</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="29">
-        <v>900</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="D29" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="29"/>
       <c r="F29" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>53</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="29" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="29">
+        <v>850</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="29" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>55</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D31" s="29">
+        <v>850</v>
+      </c>
+      <c r="E31" s="29"/>
       <c r="F31" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -2276,28 +2303,28 @@
         <v>8</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <v>2100</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -2310,8 +2337,8 @@
       <c r="C33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>54</v>
+      <c r="D33" s="29">
+        <v>900</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>55</v>
@@ -2320,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="H33" s="24" t="s">
         <v>51</v>
@@ -2337,10 +2364,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>55</v>
@@ -2349,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>51</v>
@@ -2366,10 +2393,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>55</v>
@@ -2378,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>51</v>
@@ -2395,10 +2422,10 @@
         <v>17</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>55</v>
@@ -2407,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>51</v>
@@ -2424,10 +2451,10 @@
         <v>17</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>55</v>
@@ -2436,7 +2463,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>51</v>
@@ -2465,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>51</v>
@@ -2494,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>51</v>
@@ -2511,10 +2538,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D40" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>55</v>
@@ -2523,13 +2550,13 @@
         <v>13</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -2540,10 +2567,10 @@
         <v>17</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D41" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>55</v>
@@ -2558,7 +2585,7 @@
         <v>51</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -2569,10 +2596,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D42" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>55</v>
@@ -2581,13 +2608,13 @@
         <v>13</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
@@ -2598,10 +2625,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>55</v>
@@ -2616,7 +2643,7 @@
         <v>51</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -2627,25 +2654,25 @@
         <v>17</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D44" s="29">
         <v>900</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -2656,25 +2683,25 @@
         <v>17</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D45" s="29">
+        <v>900</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -2685,25 +2712,25 @@
         <v>17</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D46" s="29">
+        <v>900</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
@@ -2714,25 +2741,25 @@
         <v>17</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="29">
+        <v>900</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
@@ -2745,8 +2772,8 @@
       <c r="C48" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>54</v>
+      <c r="D48" s="29">
+        <v>900</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>46</v>
@@ -2755,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>51</v>
@@ -2772,10 +2799,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>46</v>
@@ -2784,7 +2811,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>51</v>
@@ -2801,10 +2828,10 @@
         <v>17</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>46</v>
@@ -2813,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>51</v>
@@ -2830,10 +2857,10 @@
         <v>17</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>46</v>
@@ -2842,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>51</v>
@@ -2859,10 +2886,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>46</v>
@@ -2871,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>51</v>
@@ -2900,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>51</v>
@@ -2929,7 +2956,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H54" s="24" t="s">
         <v>51</v>
@@ -2946,10 +2973,10 @@
         <v>17</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D55" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>46</v>
@@ -2958,13 +2985,13 @@
         <v>13</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
@@ -2975,10 +3002,10 @@
         <v>17</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D56" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>46</v>
@@ -2993,7 +3020,7 @@
         <v>51</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
@@ -3004,10 +3031,10 @@
         <v>17</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D57" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>46</v>
@@ -3016,13 +3043,13 @@
         <v>13</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
@@ -3033,10 +3060,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D58" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>46</v>
@@ -3051,7 +3078,7 @@
         <v>51</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
@@ -3062,25 +3089,25 @@
         <v>17</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D59" s="29">
         <v>900</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F59" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
@@ -3091,25 +3118,25 @@
         <v>17</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D60" s="29">
+        <v>900</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F60" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -3120,25 +3147,25 @@
         <v>17</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D61" s="29">
+        <v>900</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F61" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -3149,25 +3176,25 @@
         <v>17</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="D62" s="29">
+        <v>900</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F62" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H62" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -3180,8 +3207,8 @@
       <c r="C63" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>54</v>
+      <c r="D63" s="29">
+        <v>900</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>48</v>
@@ -3190,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>51</v>
@@ -3207,10 +3234,10 @@
         <v>17</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>48</v>
@@ -3219,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H64" s="24" t="s">
         <v>51</v>
@@ -3236,10 +3263,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>48</v>
@@ -3248,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H65" s="24" t="s">
         <v>51</v>
@@ -3265,10 +3292,10 @@
         <v>17</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>48</v>
@@ -3277,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H66" s="24" t="s">
         <v>51</v>
@@ -3294,10 +3321,10 @@
         <v>17</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="29">
-        <v>2100</v>
+        <v>16</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>48</v>
@@ -3306,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>51</v>
@@ -3335,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H68" s="24" t="s">
         <v>51</v>
@@ -3364,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>51</v>
@@ -3381,10 +3408,10 @@
         <v>17</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D70" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
@@ -3393,13 +3420,13 @@
         <v>13</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
@@ -3410,10 +3437,10 @@
         <v>17</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D71" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>48</v>
@@ -3428,7 +3455,7 @@
         <v>51</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -3439,10 +3466,10 @@
         <v>17</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D72" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>48</v>
@@ -3451,13 +3478,13 @@
         <v>13</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H72" s="24" t="s">
         <v>51</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
@@ -3468,10 +3495,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D73" s="29">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>48</v>
@@ -3486,150 +3513,158 @@
         <v>51</v>
       </c>
       <c r="I73" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="29">
+        <v>900</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="29">
-        <v>2600</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="75" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D75" s="29">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I75" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D76" s="29">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I76" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77" s="29">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I77" s="29"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="I77" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D78" s="29">
         <v>2600</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I78" s="29"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>16</v>
@@ -3638,16 +3673,16 @@
         <v>2600</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I79" s="29"/>
     </row>
@@ -3661,17 +3696,17 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="29" t="s">
-        <v>204</v>
+      <c r="D80" s="29">
+        <v>2600</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H80" s="24" t="s">
         <v>203</v>
@@ -3688,17 +3723,17 @@
       <c r="C81" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="29" t="s">
-        <v>204</v>
+      <c r="D81" s="29">
+        <v>2600</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H81" s="24" t="s">
         <v>203</v>
@@ -3715,17 +3750,17 @@
       <c r="C82" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="29" t="s">
-        <v>204</v>
+      <c r="D82" s="29">
+        <v>2600</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H82" s="24" t="s">
         <v>203</v>
@@ -3740,7 +3775,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D83" s="29">
         <v>2600</v>
@@ -3752,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H83" s="24" t="s">
         <v>203</v>
@@ -3767,19 +3802,19 @@
         <v>9</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D84" s="29">
-        <v>2600</v>
+        <v>16</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H84" s="24" t="s">
         <v>203</v>
@@ -3794,26 +3829,26 @@
         <v>9</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="29">
-        <v>2600</v>
+        <v>16</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H85" s="24" t="s">
         <v>203</v>
       </c>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="29" t="s">
         <v>8</v>
       </c>
@@ -3821,19 +3856,19 @@
         <v>9</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" s="29">
-        <v>2600</v>
+        <v>16</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F86" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>203</v>
@@ -3854,13 +3889,13 @@
         <v>2600</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F87" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H87" s="24" t="s">
         <v>203</v>
@@ -3881,13 +3916,13 @@
         <v>2600</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F88" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H88" s="24" t="s">
         <v>203</v>
@@ -3908,21 +3943,129 @@
         <v>2600</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F89" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H89" s="24" t="s">
         <v>203</v>
       </c>
       <c r="I89" s="29"/>
     </row>
+    <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I90" s="29"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E91" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I91" s="29"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I92" s="29"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="29">
+        <v>2600</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I93" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I73" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
+  <autoFilter ref="A1:I93" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5F8768-B632-474F-A354-58C1369EDF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706F1CC-7FD6-4E6B-A617-592E01761486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="219">
   <si>
     <t>ZTE</t>
   </si>
@@ -855,6 +855,12 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/UtranLTE/NOE/BTS3900_LTE3/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/CNA_FULL/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/EXERT/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1397,7 @@
   <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1456,7 +1462,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>49</v>
@@ -1485,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>60</v>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706F1CC-7FD6-4E6B-A617-592E01761486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF877A57-671F-441B-BF45-C653127BCA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="225">
   <si>
     <t>ZTE</t>
   </si>
@@ -861,13 +861,31 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/EXERT/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_NL/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_NL/1Current</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_NL/1Current</t>
+  </si>
+  <si>
+    <t>700/2600</t>
+  </si>
+  <si>
+    <t>700/2601</t>
+  </si>
+  <si>
+    <t>700/2602</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +923,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1394,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4070,8 +4094,183 @@
       </c>
       <c r="I93" s="29"/>
     </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I93" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF877A57-671F-441B-BF45-C653127BCA8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76919503-FDB0-4976-99B1-EA51B215597C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="227">
   <si>
     <t>ZTE</t>
   </si>
@@ -879,6 +879,12 @@
   </si>
   <si>
     <t>700/2602</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/CNA_FULL/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/EXERT/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1544,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>49</v>
@@ -1573,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>56</v>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76919503-FDB0-4976-99B1-EA51B215597C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6361F-DD71-47E3-9374-56A727624888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="229">
   <si>
     <t>ZTE</t>
   </si>
@@ -885,6 +885,12 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/EXERT/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/CNA_FULL/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/EXERT/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1433,7 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1608,7 +1614,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>49</v>
@@ -1637,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>56</v>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6361F-DD71-47E3-9374-56A727624888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11D237-735B-43FD-9ED7-C13E51BF7A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backup!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Backup (2)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Path!$A$1:$I$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="226">
   <si>
     <t>ZTE</t>
   </si>
@@ -692,9 +692,6 @@
     <t>xx_OMMR_xx12xx_umts_radio_xx.xml</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LW/1Current</t>
-  </si>
-  <si>
     <t>NR</t>
   </si>
   <si>
@@ -710,18 +707,12 @@
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LWG/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LG/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RNC/1Current/</t>
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RBS/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RADIONODE_WCDMA/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_WG/1Current/</t>
   </si>
   <si>
@@ -737,24 +728,15 @@
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LW/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LWG/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LG/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RNC/1Current/</t>
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RBS/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE_WCDMA/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_WG/1Current/</t>
   </si>
   <si>
@@ -770,24 +752,15 @@
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LW/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LWG/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LG/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RNC/1Current/</t>
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RBS/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_WCDMA/1Current</t>
-  </si>
-  <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_WG/1Current/</t>
   </si>
   <si>
@@ -863,15 +836,6 @@
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/EXERT/1Current/</t>
   </si>
   <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_NL/1Current</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_NL/1Current</t>
-  </si>
-  <si>
-    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_NL/1Current</t>
-  </si>
-  <si>
     <t>700/2600</t>
   </si>
   <si>
@@ -891,6 +855,33 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/EXERT/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/RADIONODE_WCDMA/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_LW/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_LW/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/RADIONODE_WCDMA/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_LW/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/RADIONODE_WCDMA/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/NTH-ENM/full_kget/MIXEDMODE_NL/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/STH-ENM/full_kget/MIXEDMODE_NL/1Current/</t>
+  </si>
+  <si>
+    <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_NL/1Current/</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1498,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>49</v>
@@ -1527,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>60</v>
@@ -1556,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>49</v>
@@ -1585,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>56</v>
@@ -1614,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>49</v>
@@ -1643,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>56</v>
@@ -1660,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="29">
         <v>2600</v>
@@ -1672,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>51</v>
@@ -1689,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="29">
         <v>2600</v>
@@ -1701,7 +1692,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>51</v>
@@ -1718,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="29">
         <v>2600</v>
@@ -1730,7 +1721,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>51</v>
@@ -1846,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>39</v>
@@ -1875,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>39</v>
@@ -1904,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>39</v>
@@ -1933,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>39</v>
@@ -1962,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>39</v>
@@ -1991,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>39</v>
@@ -2020,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H20" s="24" t="s">
         <v>39</v>
@@ -2049,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>39</v>
@@ -2078,7 +2069,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>39</v>
@@ -2447,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>51</v>
@@ -2476,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>51</v>
@@ -2505,7 +2496,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H37" s="24" t="s">
         <v>51</v>
@@ -2534,7 +2525,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>51</v>
@@ -2563,7 +2554,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H39" s="24" t="s">
         <v>51</v>
@@ -2592,7 +2583,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>51</v>
@@ -2621,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>51</v>
@@ -2650,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>51</v>
@@ -2679,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>51</v>
@@ -2708,7 +2699,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>51</v>
@@ -2737,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>51</v>
@@ -2766,7 +2757,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H46" s="24" t="s">
         <v>51</v>
@@ -2795,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>51</v>
@@ -2824,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>51</v>
@@ -2853,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>51</v>
@@ -2882,7 +2873,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>51</v>
@@ -2911,7 +2902,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>51</v>
@@ -2940,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>51</v>
@@ -2969,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>51</v>
@@ -2998,7 +2989,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H54" s="24" t="s">
         <v>51</v>
@@ -3027,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="H55" s="24" t="s">
         <v>51</v>
@@ -3056,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>51</v>
@@ -3085,7 +3076,7 @@
         <v>13</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>51</v>
@@ -3114,7 +3105,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>51</v>
@@ -3143,7 +3134,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H59" s="24" t="s">
         <v>51</v>
@@ -3172,7 +3163,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>51</v>
@@ -3201,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H61" s="24" t="s">
         <v>51</v>
@@ -3230,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H62" s="24" t="s">
         <v>51</v>
@@ -3259,7 +3250,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>51</v>
@@ -3288,7 +3279,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H64" s="24" t="s">
         <v>51</v>
@@ -3317,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="H65" s="24" t="s">
         <v>51</v>
@@ -3346,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H66" s="24" t="s">
         <v>51</v>
@@ -3375,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H67" s="24" t="s">
         <v>51</v>
@@ -3404,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H68" s="24" t="s">
         <v>51</v>
@@ -3433,7 +3424,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H69" s="24" t="s">
         <v>51</v>
@@ -3462,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="H70" s="24" t="s">
         <v>51</v>
@@ -3491,7 +3482,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H71" s="24" t="s">
         <v>51</v>
@@ -3520,7 +3511,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="H72" s="24" t="s">
         <v>51</v>
@@ -3549,7 +3540,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H73" s="24" t="s">
         <v>51</v>
@@ -3578,7 +3569,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H74" s="24" t="s">
         <v>51</v>
@@ -3607,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H75" s="24" t="s">
         <v>51</v>
@@ -3636,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H76" s="24" t="s">
         <v>51</v>
@@ -3665,7 +3656,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H77" s="24" t="s">
         <v>51</v>
@@ -3682,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" s="29">
         <v>2600</v>
@@ -3694,10 +3685,10 @@
         <v>13</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I78" s="29"/>
     </row>
@@ -3721,10 +3712,10 @@
         <v>13</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I79" s="29"/>
     </row>
@@ -3748,10 +3739,10 @@
         <v>13</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I80" s="29"/>
     </row>
@@ -3775,10 +3766,10 @@
         <v>13</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I81" s="29"/>
     </row>
@@ -3802,10 +3793,10 @@
         <v>13</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I82" s="29"/>
     </row>
@@ -3829,10 +3820,10 @@
         <v>13</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I83" s="29"/>
     </row>
@@ -3847,7 +3838,7 @@
         <v>16</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>58</v>
@@ -3856,10 +3847,10 @@
         <v>13</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I84" s="29"/>
     </row>
@@ -3874,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>58</v>
@@ -3883,10 +3874,10 @@
         <v>13</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I85" s="29"/>
     </row>
@@ -3901,7 +3892,7 @@
         <v>16</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>58</v>
@@ -3910,10 +3901,10 @@
         <v>13</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I86" s="29"/>
     </row>
@@ -3925,7 +3916,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="29">
         <v>2600</v>
@@ -3937,10 +3928,10 @@
         <v>13</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I87" s="29"/>
     </row>
@@ -3952,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="29">
         <v>2600</v>
@@ -3964,10 +3955,10 @@
         <v>13</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I88" s="29"/>
     </row>
@@ -3979,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D89" s="29">
         <v>2600</v>
@@ -3991,10 +3982,10 @@
         <v>13</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I89" s="29"/>
     </row>
@@ -4006,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D90" s="29">
         <v>2600</v>
@@ -4018,10 +4009,10 @@
         <v>13</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I90" s="29"/>
     </row>
@@ -4033,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D91" s="29">
         <v>2600</v>
@@ -4045,10 +4036,10 @@
         <v>13</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I91" s="29"/>
     </row>
@@ -4060,7 +4051,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" s="29">
         <v>2600</v>
@@ -4072,10 +4063,10 @@
         <v>13</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I92" s="29"/>
     </row>
@@ -4087,7 +4078,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="29">
         <v>2600</v>
@@ -4099,10 +4090,10 @@
         <v>13</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I93" s="29"/>
     </row>
@@ -4126,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H94" s="24" t="s">
         <v>51</v>
@@ -4155,7 +4146,7 @@
         <v>13</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H95" s="24" t="s">
         <v>51</v>
@@ -4184,7 +4175,7 @@
         <v>13</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H96" s="24" t="s">
         <v>51</v>
@@ -4201,10 +4192,10 @@
         <v>17</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E97" s="29" t="s">
         <v>55</v>
@@ -4213,7 +4204,7 @@
         <v>13</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H97" s="24" t="s">
         <v>51</v>
@@ -4230,10 +4221,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>46</v>
@@ -4242,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H98" s="24" t="s">
         <v>51</v>
@@ -4259,10 +4250,10 @@
         <v>17</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E99" s="29" t="s">
         <v>48</v>
@@ -4271,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H99" s="24" t="s">
         <v>51</v>
@@ -4281,7 +4272,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I93" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
+  <autoFilter ref="A1:I99" xr:uid="{BE8EF00C-546C-4458-B0BC-6A95E4BA2A0B}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/config/prod/RawFilePathCollection.xlsx
+++ b/config/prod/RawFilePathCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\git\true\RanBaselineApp\source\config\prod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\git\true\ranbaseline\source\config\prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11D237-735B-43FD-9ED7-C13E51BF7A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139A6E0-60F3-412C-9F5E-70AF5B53FD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{F32754BE-CF86-49F4-BEFD-53C8D448A04A}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="227">
   <si>
     <t>ZTE</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>/home/app/ngoss/data/rfserver/Ericsson/CEW-ENM/full_kget/MIXEDMODE_NL/1Current/</t>
+  </si>
+  <si>
+    <t>700/900/1800/2100/2600</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114B3C2-9B56-4F69-A484-BA4ED1CFE527}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3675,8 +3678,8 @@
       <c r="C78" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D78" s="29">
-        <v>2600</v>
+      <c r="D78" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>46</v>
@@ -3702,8 +3705,8 @@
       <c r="C79" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="29">
-        <v>2600</v>
+      <c r="D79" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>46</v>
